--- a/NaiveBayesClassifier.xlsx
+++ b/NaiveBayesClassifier.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="G38" sqref="A28:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
